--- a/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
+++ b/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93C5D527-AC4D-42EC-B547-CCF3A4E3CF1F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBB3FB-0974-4827-9EEF-449437053ED2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6518" windowHeight="10350" xr2:uid="{A4347CF2-10A7-4A04-B092-9274E27153AA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="28">
   <si>
     <t># Variant positions</t>
   </si>
@@ -104,6 +104,12 @@
   <si>
     <t>/home/vchu/adar_stacks4/stacks_rx_brazil_16/populations_r0.75_p4/batch_1.sumstats_summary.tsv</t>
   </si>
+  <si>
+    <t>Life history- Populations, no preset</t>
+  </si>
+  <si>
+    <t>/home/vchu/adar_stacks4/stacks_rx_brazil_16/populations_r0.75_try1/batch_1.sumstats_summary.tsv</t>
+  </si>
 </sst>
 </file>
 
@@ -167,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10879E-AD55-4C10-B65C-597611085A49}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2270,6 +2277,886 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s">
+        <v>5</v>
+      </c>
+      <c r="U34" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>386</v>
+      </c>
+      <c r="C35">
+        <v>22.190200000000001</v>
+      </c>
+      <c r="D35">
+        <v>2.8342999999999998</v>
+      </c>
+      <c r="E35">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="G35">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="H35">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="I35">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="K35">
+        <v>1.5E-3</v>
+      </c>
+      <c r="L35">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="M35">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N35">
+        <v>1.5E-3</v>
+      </c>
+      <c r="O35">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="P35">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="Q35">
+        <v>2.3E-3</v>
+      </c>
+      <c r="R35">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="S35">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="T35">
+        <v>2.3E-3</v>
+      </c>
+      <c r="U35">
+        <v>6.88E-2</v>
+      </c>
+      <c r="V35">
+        <v>1.46E-2</v>
+      </c>
+      <c r="W35">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="X35">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>31.132000000000001</v>
+      </c>
+      <c r="Z35">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36">
+        <v>1499</v>
+      </c>
+      <c r="C36">
+        <v>24.2254</v>
+      </c>
+      <c r="D36">
+        <v>4.4314999999999998</v>
+      </c>
+      <c r="E36">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="G36">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H36">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I36">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="J36">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="K36">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="L36">
+        <v>0.95489999999999997</v>
+      </c>
+      <c r="M36">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="N36">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="O36">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P36">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="Q36">
+        <v>1.8E-3</v>
+      </c>
+      <c r="R36">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="S36">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="T36">
+        <v>1.8E-3</v>
+      </c>
+      <c r="U36">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="V36">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="W36">
+        <v>1.8E-3</v>
+      </c>
+      <c r="X36">
+        <v>0.2863</v>
+      </c>
+      <c r="Y36">
+        <v>21.074400000000001</v>
+      </c>
+      <c r="Z36">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37">
+        <v>432</v>
+      </c>
+      <c r="C37">
+        <v>11.6099</v>
+      </c>
+      <c r="D37">
+        <v>1.2994000000000001</v>
+      </c>
+      <c r="E37">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="G37">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="I37">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="J37">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L37">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="M37">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="N37">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="O37">
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="P37">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="Q37">
+        <v>2E-3</v>
+      </c>
+      <c r="R37">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="S37">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="T37">
+        <v>2E-3</v>
+      </c>
+      <c r="U37">
+        <v>0.1196</v>
+      </c>
+      <c r="V37">
+        <v>2.92E-2</v>
+      </c>
+      <c r="W37">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="X37">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="Y37">
+        <v>29.8492</v>
+      </c>
+      <c r="Z37">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>1488</v>
+      </c>
+      <c r="C38">
+        <v>23.9466</v>
+      </c>
+      <c r="D38">
+        <v>4.3705999999999996</v>
+      </c>
+      <c r="E38">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F38">
+        <v>0.95289999999999997</v>
+      </c>
+      <c r="G38">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="H38">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="I38">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="J38">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="K38">
+        <v>1E-3</v>
+      </c>
+      <c r="L38">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="M38">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N38">
+        <v>1E-3</v>
+      </c>
+      <c r="O38">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="P38">
+        <v>1.29E-2</v>
+      </c>
+      <c r="Q38">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="R38">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="S38">
+        <v>1.29E-2</v>
+      </c>
+      <c r="T38">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="U38">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="V38">
+        <v>1.34E-2</v>
+      </c>
+      <c r="W38">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="X38">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="Y38">
+        <v>21.733799999999999</v>
+      </c>
+      <c r="Z38">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s">
+        <v>9</v>
+      </c>
+      <c r="T40" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" t="s">
+        <v>10</v>
+      </c>
+      <c r="W40" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="4">
+        <v>386</v>
+      </c>
+      <c r="C41" s="4">
+        <v>417126</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2603</v>
+      </c>
+      <c r="E41">
+        <v>1048</v>
+      </c>
+      <c r="F41">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="G41">
+        <v>22.2119</v>
+      </c>
+      <c r="H41">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="I41">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J41">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K41">
+        <v>1E-4</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="T41">
+        <v>1E-4</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="W41">
+        <v>1E-4</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Z41">
+        <v>1E-4</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AC41">
+        <v>48.896000000000001</v>
+      </c>
+      <c r="AD41">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1499</v>
+      </c>
+      <c r="C42" s="4">
+        <v>798292</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5085</v>
+      </c>
+      <c r="E42">
+        <v>3079</v>
+      </c>
+      <c r="F42">
+        <v>0.38569999999999999</v>
+      </c>
+      <c r="G42">
+        <v>24.3126</v>
+      </c>
+      <c r="H42">
+        <v>4.3727</v>
+      </c>
+      <c r="I42">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J42">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="K42">
+        <v>1E-4</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="T42">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="W42">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="Z42">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AC42">
+        <v>48.838000000000001</v>
+      </c>
+      <c r="AD42">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4">
+        <v>432</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1032977</v>
+      </c>
+      <c r="D43" s="4">
+        <v>6588</v>
+      </c>
+      <c r="E43">
+        <v>2796</v>
+      </c>
+      <c r="F43">
+        <v>0.2707</v>
+      </c>
+      <c r="G43">
+        <v>11.6637</v>
+      </c>
+      <c r="H43">
+        <v>1.2616000000000001</v>
+      </c>
+      <c r="I43">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J43">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="K43">
+        <v>1E-4</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N43">
+        <v>1E-4</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="Q43">
+        <v>1E-4</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="T43">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="W43">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Z43">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AC43">
+        <v>48.885199999999998</v>
+      </c>
+      <c r="AD43">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1488</v>
+      </c>
+      <c r="C44" s="4">
+        <v>692580</v>
+      </c>
+      <c r="D44" s="4">
+        <v>4400</v>
+      </c>
+      <c r="E44">
+        <v>2569</v>
+      </c>
+      <c r="F44">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="G44">
+        <v>23.9986</v>
+      </c>
+      <c r="H44">
+        <v>4.3977000000000004</v>
+      </c>
+      <c r="I44">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J44">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="K44">
+        <v>1E-4</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="T44">
+        <v>1E-4</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="W44">
+        <v>1E-4</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Z44">
+        <v>1E-4</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="AC44">
+        <v>48.837800000000001</v>
+      </c>
+      <c r="AD44">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
+++ b/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\popgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmc04\Documents\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBB3FB-0974-4827-9EEF-449437053ED2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6518" windowHeight="10350" xr2:uid="{A4347CF2-10A7-4A04-B092-9274E27153AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6525" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +141,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,35 +497,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10879E-AD55-4C10-B65C-597611085A49}">
-  <dimension ref="A1:AD44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -680,7 +687,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -760,7 +767,7 @@
         <v>3.2099999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -840,7 +847,7 @@
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -920,12 +927,12 @@
         <v>3.39E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1040,7 @@
       <c r="E11" s="2">
         <v>936</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>0.24</v>
       </c>
       <c r="G11" s="2">
@@ -1109,7 +1116,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1132,7 @@
       <c r="E12" s="2">
         <v>1891</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>0.32819999999999999</v>
       </c>
       <c r="G12" s="2">
@@ -1201,7 +1208,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1224,7 @@
       <c r="E13" s="2">
         <v>622</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>0.1089</v>
       </c>
       <c r="G13" s="2">
@@ -1293,7 +1300,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1316,7 @@
       <c r="E14" s="2">
         <v>1888</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>0.33510000000000001</v>
       </c>
       <c r="G14" s="2">
@@ -1385,28 +1392,32 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>SUM(D11:D14)</f>
         <v>13524</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="E15">
+        <f>SUM(E11:E14)</f>
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1566,7 +1577,7 @@
         <v>3.56E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1646,7 +1657,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1806,12 +1817,12 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -1919,7 +1930,7 @@
       <c r="E26" s="2">
         <v>827</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>0.23699999999999999</v>
       </c>
       <c r="G26" s="2">
@@ -1995,7 +2006,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2011,7 +2022,7 @@
       <c r="E27" s="2">
         <v>1058</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>0.30330000000000001</v>
       </c>
       <c r="G27" s="2">
@@ -2087,7 +2098,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2114,7 @@
       <c r="E28" s="2">
         <v>338</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>9.69E-2</v>
       </c>
       <c r="G28" s="2">
@@ -2179,7 +2190,7 @@
         <v>1.5E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
@@ -2195,7 +2206,7 @@
       <c r="E29" s="2">
         <v>1102</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>0.31590000000000001</v>
       </c>
       <c r="G29" s="2">
@@ -2271,890 +2282,904 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>SUM(D26:D29)</f>
         <v>9000</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="E30">
+        <f>SUM(E26:E29)</f>
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G34" t="s">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="G34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J34" t="s">
-        <v>4</v>
-      </c>
-      <c r="K34" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="J34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M34" t="s">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>5</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="M34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P34" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="P34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S34" t="s">
-        <v>4</v>
-      </c>
-      <c r="T34" t="s">
-        <v>5</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="S34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V34" t="s">
-        <v>4</v>
-      </c>
-      <c r="W34" t="s">
-        <v>5</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="V34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Y34" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="Y34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>386</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>22.190200000000001</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>2.8342999999999998</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>0.95679999999999998</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <v>0.96540000000000004</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="2">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="2">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="2">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="2">
         <v>0.93269999999999997</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="2">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="2">
         <v>6.88E-2</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="2">
         <v>1.46E-2</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="2">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="2">
         <v>0.20480000000000001</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="2">
         <v>31.132000000000001</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>1499</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>24.2254</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>4.4314999999999998</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>0.94020000000000004</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <v>0.95489999999999997</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="2">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="2">
         <v>0.90600000000000003</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="2">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="2">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="V36">
+      <c r="V36" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="W36">
+      <c r="W36" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="2">
         <v>0.2863</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="2">
         <v>21.074400000000001</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="2">
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>432</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>11.6099</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>1.2994000000000001</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>1.4E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>0.92030000000000001</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>0.94230000000000003</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>0.11409999999999999</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="2">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="2">
         <v>2E-3</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="2">
         <v>0.88590000000000002</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="2">
         <v>2.6599999999999999E-2</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="2">
         <v>2E-3</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="2">
         <v>0.1196</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="2">
         <v>2.92E-2</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="2">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="2">
         <v>0.18870000000000001</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="2">
         <v>29.8492</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="2">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>1488</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>23.9466</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>4.3705999999999996</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>3.15E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>0.95289999999999997</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>3.9899999999999998E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>1E-3</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>0.96009999999999995</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>1E-3</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="2">
         <v>0.92469999999999997</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="2">
         <v>1.29E-2</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="2">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="2">
         <v>1.34E-2</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="2">
         <v>0.20730000000000001</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="2">
         <v>21.733799999999999</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="2">
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H40" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>5</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="H40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K40" t="s">
-        <v>4</v>
-      </c>
-      <c r="L40" t="s">
-        <v>5</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="K40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N40" t="s">
-        <v>4</v>
-      </c>
-      <c r="O40" t="s">
-        <v>5</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="N40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q40" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" t="s">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="Q40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="T40" t="s">
-        <v>4</v>
-      </c>
-      <c r="U40" t="s">
-        <v>5</v>
-      </c>
-      <c r="V40" t="s">
+      <c r="T40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W40" t="s">
-        <v>4</v>
-      </c>
-      <c r="X40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y40" t="s">
+      <c r="W40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Z40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB40" t="s">
+      <c r="Z40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AC40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="AC40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>386</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>417126</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>2603</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1048</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>0.25119999999999998</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>22.2119</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>2.8279999999999998</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="K41">
-        <v>1E-4</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
+      <c r="K41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
         <v>0.99980000000000002</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="T41">
-        <v>1E-4</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
+      <c r="T41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
         <v>0.99960000000000004</v>
       </c>
-      <c r="W41">
-        <v>1E-4</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
+      <c r="W41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="Z41">
-        <v>1E-4</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
+      <c r="Z41" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AC41">
+      <c r="AC41" s="2">
         <v>48.896000000000001</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="2">
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>1499</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>798292</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>5085</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>3079</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>0.38569999999999999</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>24.3126</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>4.3727</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>0.99960000000000004</v>
       </c>
-      <c r="K42">
-        <v>1E-4</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K42" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
         <v>0.99939999999999996</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
         <v>1.8E-3</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="2">
         <v>48.838000000000001</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="2">
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>432</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1032977</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>6588</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>2796</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>0.2707</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>11.6637</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="2">
         <v>1.2616000000000001</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>0.99950000000000006</v>
       </c>
-      <c r="K43">
-        <v>1E-4</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="K43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N43">
-        <v>1E-4</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="N43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
         <v>0.99960000000000004</v>
       </c>
-      <c r="Q43">
-        <v>1E-4</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
+      <c r="Q43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
         <v>0.99929999999999997</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="2">
         <v>48.885199999999998</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>1488</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>692580</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>2569</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="4">
         <v>0.37090000000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>23.9986</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="2">
         <v>4.3977000000000004</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="2">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="K44">
-        <v>1E-4</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
+      <c r="K44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>0.99970000000000003</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="T44">
-        <v>1E-4</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
+      <c r="T44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
         <v>0.99950000000000006</v>
       </c>
-      <c r="W44">
-        <v>1E-4</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
+      <c r="W44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="Z44">
-        <v>1E-4</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
+      <c r="Z44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="2">
         <v>48.837800000000001</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="2">
         <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>SUM(D41:D44)</f>
+        <v>18676</v>
+      </c>
+      <c r="E45">
+        <f>SUM(E41:E44)</f>
+        <v>9492</v>
       </c>
     </row>
   </sheetData>

--- a/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
+++ b/popgen/2018_03_26 Brazil Adar populations 3 vs 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgc\GitHub\wingproj\popgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBB3FB-0974-4827-9EEF-449437053ED2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC116631-16B4-4D5B-8B5A-12EE8E617124}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6518" windowHeight="10350" xr2:uid="{A4347CF2-10A7-4A04-B092-9274E27153AA}"/>
   </bookViews>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10879E-AD55-4C10-B65C-597611085A49}">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="B45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1386,6 +1386,14 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" ref="B15:C15" si="0">SUM(B11:B14)</f>
+        <v>2720</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2100891</v>
+      </c>
       <c r="D15">
         <f>SUM(D11:D14)</f>
         <v>13524</v>
@@ -2272,6 +2280,14 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f t="shared" ref="B30:C30" si="1">SUM(B26:B29)</f>
+        <v>1570</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>1395528</v>
+      </c>
       <c r="D30">
         <f>SUM(D26:D29)</f>
         <v>9000</v>
@@ -3155,6 +3171,20 @@
       </c>
       <c r="AD44">
         <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <f t="shared" ref="B45:C45" si="2">SUM(B41:B44)</f>
+        <v>3805</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>2940975</v>
+      </c>
+      <c r="D45">
+        <f>SUM(D41:D44)</f>
+        <v>18676</v>
       </c>
     </row>
   </sheetData>
